--- a/000.커리큐럼/주단위상세일정엑셀/FED-RF-2023-TOM_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/FED-RF-2023-TOM_주단위상세일정.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitTom\FED-RF-2023-TOM\000.커리큐럼\주단위상세일정엑셀\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="600" yWindow="225" windowWidth="19410" windowHeight="8895"/>
   </bookViews>
@@ -11,12 +16,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="97">
   <si>
     <t>3주차</t>
   </si>
@@ -161,10 +166,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>1차 분석 / 설계</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>HTML5 + CSS3 기본 및 응용연습
 와이어프레이밍(Balsamiq)</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -188,10 +189,6 @@
   </si>
   <si>
     <t>도깨비 PJ v2. / 보그 PJ</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>도깨비 PJ v1. / CGV PJ</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -385,13 +382,29 @@
   </si>
   <si>
     <t>Flutter 응용</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차 분석 / 설계</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차 분석 / 설계 / 레이아웃</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차 레이아웃 / 상세코딩</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>도깨비 PJ v1.</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="#\ &quot;일&quot;"/>
     <numFmt numFmtId="177" formatCode="&quot;총&quot;\ #\ &quot;일&quot;"/>
@@ -485,7 +498,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -516,6 +529,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="14">
     <border>
@@ -725,7 +756,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -753,6 +784,153 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -772,96 +950,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -927,7 +1015,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -962,7 +1050,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1174,13 +1262,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:L33"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="2.375" customWidth="1"/>
     <col min="2" max="2" width="7.25" style="2" bestFit="1" customWidth="1"/>
@@ -1193,46 +1281,46 @@
     <col min="9" max="9" width="30.75" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="27.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="40.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.3125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="17.25" thickBot="1"/>
-    <row r="2" spans="2:12" ht="53.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B2" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="15"/>
-    </row>
-    <row r="3" spans="2:12" ht="18.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-    </row>
-    <row r="4" spans="2:12" s="3" customFormat="1" ht="34.5" customHeight="1">
+    <row r="1" spans="1:12" ht="17.25" thickBot="1"/>
+    <row r="2" spans="1:12" ht="53.25" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B2" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="64"/>
+    </row>
+    <row r="3" spans="1:12" ht="18.75" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+    </row>
+    <row r="4" spans="1:12" s="3" customFormat="1" ht="34.5" customHeight="1">
       <c r="B4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
       <c r="F4" s="8" t="s">
         <v>11</v>
       </c>
@@ -1255,854 +1343,855 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B5" s="16" t="s">
+    <row r="5" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
+      <c r="B5" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="41">
         <v>45134</v>
       </c>
-      <c r="D5" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="17">
+      <c r="D5" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="41">
         <v>45135</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="43">
         <f>DAYS360(C5,E5)+1</f>
         <v>2</v>
       </c>
-      <c r="G5" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="21" t="s">
+      <c r="G5" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="L5" s="43" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B6" s="22" t="s">
+      <c r="L5" s="46" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
+      <c r="B6" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="23">
+      <c r="C6" s="49">
         <v>45138</v>
       </c>
-      <c r="D6" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="23">
+      <c r="D6" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="49">
         <v>45142</v>
       </c>
-      <c r="F6" s="25">
+      <c r="F6" s="51">
         <f t="shared" ref="F6:F30" si="0">DAYS360(C6,E6)+1</f>
         <v>5</v>
       </c>
-      <c r="G6" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="H6" s="26"/>
-      <c r="I6" s="24" t="s">
+      <c r="G6" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="H6" s="52"/>
+      <c r="I6" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="24" t="s">
+      <c r="J6" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="K6" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="L6" s="28"/>
-    </row>
-    <row r="7" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B7" s="22" t="s">
+      <c r="K6" s="53" t="s">
+        <v>42</v>
+      </c>
+      <c r="L6" s="54"/>
+    </row>
+    <row r="7" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
+      <c r="B7" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="23">
+      <c r="C7" s="49">
         <v>45145</v>
       </c>
-      <c r="D7" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="23">
+      <c r="D7" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="49">
         <v>45149</v>
       </c>
-      <c r="F7" s="25">
+      <c r="F7" s="51">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G7" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="H7" s="44" t="s">
-        <v>62</v>
-      </c>
-      <c r="I7" s="24" t="s">
+      <c r="G7" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="H7" s="55" t="s">
+        <v>60</v>
+      </c>
+      <c r="I7" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="J7" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="K7" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="L7" s="28"/>
-    </row>
-    <row r="8" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B8" s="22" t="s">
+      <c r="J7" s="50" t="s">
+        <v>93</v>
+      </c>
+      <c r="K7" s="53" t="s">
+        <v>65</v>
+      </c>
+      <c r="L7" s="54"/>
+    </row>
+    <row r="8" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
+      <c r="B8" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="23">
+      <c r="C8" s="49">
         <v>45152</v>
       </c>
-      <c r="D8" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="23">
+      <c r="D8" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="49">
         <v>45156</v>
       </c>
-      <c r="F8" s="39">
+      <c r="F8" s="51">
         <f>DAYS360(C8,E8)</f>
         <v>4</v>
       </c>
-      <c r="G8" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="H8" s="29"/>
-      <c r="I8" s="24" t="s">
+      <c r="G8" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8" s="56"/>
+      <c r="I8" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="J8" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="K8" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="L8" s="28"/>
-    </row>
-    <row r="9" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B9" s="22" t="s">
+      <c r="J8" s="50" t="s">
+        <v>94</v>
+      </c>
+      <c r="K8" s="53" t="s">
+        <v>65</v>
+      </c>
+      <c r="L8" s="54"/>
+    </row>
+    <row r="9" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
+      <c r="B9" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="23">
+      <c r="C9" s="49">
         <v>45159</v>
       </c>
-      <c r="D9" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="23">
+      <c r="D9" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="49">
         <v>45163</v>
       </c>
-      <c r="F9" s="25">
+      <c r="F9" s="51">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G9" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="H9" s="26"/>
-      <c r="I9" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="J9" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="K9" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="L9" s="28"/>
-    </row>
-    <row r="10" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B10" s="22" t="s">
+      <c r="G9" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="H9" s="52"/>
+      <c r="I9" s="50" t="s">
+        <v>96</v>
+      </c>
+      <c r="J9" s="50" t="s">
+        <v>95</v>
+      </c>
+      <c r="K9" s="53" t="s">
+        <v>64</v>
+      </c>
+      <c r="L9" s="54"/>
+    </row>
+    <row r="10" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
+      <c r="B10" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="23">
+      <c r="C10" s="49">
         <v>45166</v>
       </c>
-      <c r="D10" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="23">
+      <c r="D10" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="49">
         <v>45170</v>
       </c>
-      <c r="F10" s="25">
+      <c r="F10" s="51">
         <f>DAYS360(C10,E10)+2</f>
         <v>5</v>
       </c>
-      <c r="G10" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="H10" s="45">
+      <c r="G10" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="H10" s="56">
         <v>45166</v>
       </c>
-      <c r="I10" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="J10" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="K10" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="L10" s="28"/>
-    </row>
-    <row r="11" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B11" s="22" t="s">
+      <c r="I10" s="50" t="s">
+        <v>96</v>
+      </c>
+      <c r="J10" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="K10" s="53" t="s">
+        <v>48</v>
+      </c>
+      <c r="L10" s="54"/>
+    </row>
+    <row r="11" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
+      <c r="A11" s="47"/>
+      <c r="B11" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="23">
+      <c r="C11" s="34">
         <v>45173</v>
       </c>
-      <c r="D11" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="23">
+      <c r="D11" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="34">
         <v>45177</v>
       </c>
-      <c r="F11" s="25">
+      <c r="F11" s="36">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G11" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="H11" s="29"/>
-      <c r="I11" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="J11" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="K11" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="L11" s="28"/>
-    </row>
-    <row r="12" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B12" s="22" t="s">
+      <c r="G11" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="H11" s="57"/>
+      <c r="I11" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="J11" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="K11" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="L11" s="39"/>
+    </row>
+    <row r="12" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
+      <c r="B12" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="23">
+      <c r="C12" s="11">
         <v>45180</v>
       </c>
-      <c r="D12" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="23">
+      <c r="D12" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="11">
         <v>45184</v>
       </c>
-      <c r="F12" s="25">
+      <c r="F12" s="13">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G12" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="H12" s="26"/>
-      <c r="I12" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="J12" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="K12" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="L12" s="28"/>
-    </row>
-    <row r="13" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B13" s="22" t="s">
+      <c r="G12" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="H12" s="14"/>
+      <c r="I12" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="K12" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="L12" s="16"/>
+    </row>
+    <row r="13" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
+      <c r="B13" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="23">
+      <c r="C13" s="11">
         <v>45187</v>
       </c>
-      <c r="D13" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="23">
+      <c r="D13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="11">
         <v>45191</v>
       </c>
-      <c r="F13" s="25">
+      <c r="F13" s="13">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G13" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="H13" s="45">
+      <c r="G13" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="H13" s="32">
         <v>45190</v>
       </c>
-      <c r="I13" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="J13" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="K13" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="L13" s="28"/>
-    </row>
-    <row r="14" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B14" s="22" t="s">
+      <c r="I13" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="J13" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="K13" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="L13" s="16"/>
+    </row>
+    <row r="14" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
+      <c r="B14" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="23">
+      <c r="C14" s="11">
         <v>45194</v>
       </c>
-      <c r="D14" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="23">
+      <c r="D14" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="11">
         <v>45196</v>
       </c>
-      <c r="F14" s="39">
+      <c r="F14" s="27">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G14" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="H14" s="26"/>
-      <c r="I14" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="J14" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="K14" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="L14" s="28"/>
-    </row>
-    <row r="15" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B15" s="22" t="s">
+      <c r="G14" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="H14" s="14"/>
+      <c r="I14" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="K14" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="L14" s="16"/>
+    </row>
+    <row r="15" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
+      <c r="B15" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="23">
+      <c r="C15" s="11">
         <v>45201</v>
       </c>
-      <c r="D15" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" s="23">
+      <c r="D15" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="11">
         <v>45205</v>
       </c>
-      <c r="F15" s="39">
+      <c r="F15" s="27">
         <f>DAYS360(C15,E15)</f>
         <v>4</v>
       </c>
-      <c r="G15" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="H15" s="26"/>
-      <c r="I15" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="J15" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="K15" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="L15" s="28"/>
-    </row>
-    <row r="16" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B16" s="22" t="s">
+      <c r="G15" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="H15" s="14"/>
+      <c r="I15" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="K15" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="L15" s="16"/>
+    </row>
+    <row r="16" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
+      <c r="B16" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="23">
+      <c r="C16" s="11">
         <v>45209</v>
       </c>
-      <c r="D16" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="23">
+      <c r="D16" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="11">
         <v>45212</v>
       </c>
-      <c r="F16" s="39">
+      <c r="F16" s="27">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G16" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="H16" s="29"/>
-      <c r="I16" s="27" t="s">
+      <c r="G16" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="H16" s="17"/>
+      <c r="I16" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="J16" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="K16" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="L16" s="28"/>
+      <c r="J16" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="K16" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="L16" s="16"/>
     </row>
     <row r="17" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="23">
+      <c r="C17" s="11">
         <v>45215</v>
       </c>
-      <c r="D17" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="23">
+      <c r="D17" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="11">
         <v>45219</v>
       </c>
-      <c r="F17" s="25">
+      <c r="F17" s="13">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G17" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="H17" s="45">
+      <c r="G17" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="H17" s="32">
         <v>45215</v>
       </c>
-      <c r="I17" s="27" t="s">
+      <c r="I17" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="J17" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="K17" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="L17" s="43"/>
+      <c r="J17" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="K17" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="L17" s="31"/>
     </row>
     <row r="18" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="23">
+      <c r="C18" s="11">
         <v>45222</v>
       </c>
-      <c r="D18" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" s="23">
+      <c r="D18" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="11">
         <v>45226</v>
       </c>
-      <c r="F18" s="25">
+      <c r="F18" s="13">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G18" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="H18" s="26"/>
-      <c r="I18" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="J18" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="K18" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="L18" s="28"/>
+      <c r="G18" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="H18" s="14"/>
+      <c r="I18" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="K18" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="L18" s="16"/>
     </row>
     <row r="19" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="23">
+      <c r="C19" s="11">
         <v>45229</v>
       </c>
-      <c r="D19" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="23">
+      <c r="D19" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="11">
         <v>45233</v>
       </c>
-      <c r="F19" s="25">
+      <c r="F19" s="13">
         <f>DAYS360(C19,E19)+2</f>
         <v>5</v>
       </c>
-      <c r="G19" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="H19" s="45">
+      <c r="G19" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="H19" s="32">
         <v>45229</v>
       </c>
-      <c r="I19" s="27" t="s">
+      <c r="I19" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="J19" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="K19" s="27" t="s">
-        <v>91</v>
-      </c>
-      <c r="L19" s="28"/>
+      <c r="J19" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="K19" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="L19" s="16"/>
     </row>
     <row r="20" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="23">
+      <c r="C20" s="11">
         <v>45236</v>
       </c>
-      <c r="D20" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20" s="23">
+      <c r="D20" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="11">
         <v>45240</v>
       </c>
-      <c r="F20" s="25">
+      <c r="F20" s="13">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G20" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="H20" s="26"/>
-      <c r="I20" s="27" t="s">
+      <c r="G20" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="H20" s="14"/>
+      <c r="I20" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="J20" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="K20" s="27" t="s">
-        <v>91</v>
-      </c>
-      <c r="L20" s="32" t="s">
-        <v>81</v>
+      <c r="J20" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="K20" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="L20" s="20" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="23">
+      <c r="C21" s="11">
         <v>45243</v>
       </c>
-      <c r="D21" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21" s="23">
+      <c r="D21" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="11">
         <v>45247</v>
       </c>
-      <c r="F21" s="25">
+      <c r="F21" s="13">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G21" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="H21" s="45">
+      <c r="G21" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="H21" s="32">
         <v>45243</v>
       </c>
-      <c r="I21" s="27" t="s">
+      <c r="I21" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="J21" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="K21" s="27" t="s">
-        <v>91</v>
-      </c>
-      <c r="L21" s="28"/>
+      <c r="J21" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="K21" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="L21" s="16"/>
     </row>
     <row r="22" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="23">
+      <c r="C22" s="11">
         <v>45250</v>
       </c>
-      <c r="D22" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" s="23">
+      <c r="D22" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="11">
         <v>45254</v>
       </c>
-      <c r="F22" s="25">
+      <c r="F22" s="13">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G22" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26" t="s">
+      <c r="G22" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="J22" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="K22" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="L22" s="28"/>
+      <c r="J22" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="K22" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="L22" s="16"/>
     </row>
     <row r="23" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="23">
+      <c r="C23" s="11">
         <v>45257</v>
       </c>
-      <c r="D23" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E23" s="23">
+      <c r="D23" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="11">
         <v>45261</v>
       </c>
-      <c r="F23" s="25">
+      <c r="F23" s="13">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G23" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="H23" s="26"/>
-      <c r="I23" s="26" t="s">
+      <c r="G23" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="J23" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="K23" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="L23" s="28"/>
+      <c r="J23" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="K23" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="L23" s="16"/>
     </row>
     <row r="24" spans="2:12" ht="55.5" customHeight="1">
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="23">
+      <c r="C24" s="11">
         <v>45264</v>
       </c>
-      <c r="D24" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E24" s="23">
+      <c r="D24" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="11">
         <v>45268</v>
       </c>
-      <c r="F24" s="25">
+      <c r="F24" s="13">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G24" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="H24" s="45">
+      <c r="G24" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="H24" s="32">
         <v>45264</v>
       </c>
-      <c r="I24" s="26" t="s">
+      <c r="I24" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="J24" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="K24" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="L24" s="30"/>
+      <c r="J24" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="K24" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="L24" s="18"/>
     </row>
     <row r="25" spans="2:12" ht="57.75" customHeight="1">
-      <c r="B25" s="22" t="s">
+      <c r="B25" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="23">
+      <c r="C25" s="11">
         <v>45271</v>
       </c>
-      <c r="D25" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E25" s="23">
+      <c r="D25" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="11">
         <v>45275</v>
       </c>
-      <c r="F25" s="25">
+      <c r="F25" s="13">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G25" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="H25" s="31"/>
-      <c r="I25" s="26" t="s">
+      <c r="G25" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="H25" s="19"/>
+      <c r="I25" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="J25" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="K25" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="L25" s="30"/>
+      <c r="J25" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="K25" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="L25" s="18"/>
     </row>
     <row r="26" spans="2:12" ht="51" customHeight="1">
-      <c r="B26" s="22" t="s">
+      <c r="B26" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="23">
+      <c r="C26" s="11">
         <v>45278</v>
       </c>
-      <c r="D26" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E26" s="23">
+      <c r="D26" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="11">
         <v>45282</v>
       </c>
-      <c r="F26" s="25">
+      <c r="F26" s="13">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G26" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="H26" s="31"/>
-      <c r="I26" s="26" t="s">
+      <c r="G26" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="H26" s="19"/>
+      <c r="I26" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="J26" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="K26" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="L26" s="32"/>
+      <c r="J26" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="K26" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="L26" s="20"/>
     </row>
     <row r="27" spans="2:12" ht="51" customHeight="1">
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="23">
+      <c r="C27" s="11">
         <v>45286</v>
       </c>
-      <c r="D27" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E27" s="23">
+      <c r="D27" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="11">
         <v>45289</v>
       </c>
-      <c r="F27" s="39">
+      <c r="F27" s="27">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G27" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="H27" s="45">
+      <c r="G27" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="H27" s="32">
         <v>45286</v>
       </c>
-      <c r="I27" s="26" t="s">
+      <c r="I27" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="J27" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="K27" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="L27" s="32"/>
+      <c r="J27" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="K27" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="L27" s="20"/>
     </row>
     <row r="28" spans="2:12" ht="51" customHeight="1">
-      <c r="B28" s="22" t="s">
+      <c r="B28" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="23">
+      <c r="C28" s="11">
         <v>45293</v>
       </c>
-      <c r="D28" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E28" s="23">
+      <c r="D28" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" s="11">
         <v>45296</v>
       </c>
-      <c r="F28" s="39">
+      <c r="F28" s="27">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G28" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="H28" s="31"/>
-      <c r="I28" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="J28" s="24" t="s">
+      <c r="G28" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="H28" s="19"/>
+      <c r="I28" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="K28" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="L28" s="32"/>
+      <c r="J28" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="K28" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="L28" s="20"/>
     </row>
     <row r="29" spans="2:12" ht="51" customHeight="1">
-      <c r="B29" s="22" t="s">
+      <c r="B29" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C29" s="23">
+      <c r="C29" s="11">
         <v>45299</v>
       </c>
-      <c r="D29" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E29" s="23">
+      <c r="D29" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="11">
         <v>45303</v>
       </c>
-      <c r="F29" s="25">
+      <c r="F29" s="13">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G29" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="H29" s="31"/>
-      <c r="I29" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="J29" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="K29" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="L29" s="32"/>
+      <c r="G29" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="H29" s="19"/>
+      <c r="I29" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="J29" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="K29" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="L29" s="20"/>
     </row>
     <row r="30" spans="2:12" ht="51" customHeight="1" thickBot="1">
-      <c r="B30" s="33" t="s">
+      <c r="B30" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="34">
+      <c r="C30" s="22">
         <v>45306</v>
       </c>
-      <c r="D30" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="E30" s="34">
+      <c r="D30" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" s="22">
         <v>45309</v>
       </c>
-      <c r="F30" s="36">
+      <c r="F30" s="24">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G30" s="37" t="s">
-        <v>79</v>
-      </c>
-      <c r="H30" s="40"/>
-      <c r="I30" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="J30" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="K30" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="L30" s="42" t="s">
-        <v>80</v>
+      <c r="G30" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="H30" s="28"/>
+      <c r="I30" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="J30" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="K30" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="L30" s="30" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="31" spans="2:12" ht="47.25" customHeight="1" thickBot="1">
@@ -2114,32 +2203,32 @@
       </c>
     </row>
     <row r="32" spans="2:12" ht="21.75" customHeight="1">
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="11"/>
-    </row>
-    <row r="33" spans="2:11" s="5" customFormat="1" ht="20.65">
-      <c r="B33" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="12"/>
+      <c r="C32" s="60"/>
+      <c r="D32" s="60"/>
+      <c r="E32" s="60"/>
+      <c r="F32" s="60"/>
+      <c r="G32" s="60"/>
+      <c r="H32" s="60"/>
+      <c r="I32" s="60"/>
+      <c r="J32" s="60"/>
+      <c r="K32" s="60"/>
+    </row>
+    <row r="33" spans="2:11" s="5" customFormat="1" ht="20.25">
+      <c r="B33" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33" s="61"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="61"/>
+      <c r="F33" s="61"/>
+      <c r="G33" s="61"/>
+      <c r="H33" s="61"/>
+      <c r="I33" s="61"/>
+      <c r="J33" s="61"/>
+      <c r="K33" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2161,7 +2250,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2174,7 +2263,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/000.커리큐럼/주단위상세일정엑셀/FED-RF-2023-TOM_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/FED-RF-2023-TOM_주단위상세일정.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="98">
   <si>
     <t>개발환경셋팅: VS Code + Server + GitHub
 HTML 기초 + CSS 기초</t>
@@ -188,9 +188,6 @@
   </si>
   <si>
     <t>도깨비 PJ v1. / CGV PJ</t>
-  </si>
-  <si>
-    <t>도깨비 PJ v2. / 보그 PJ</t>
   </si>
   <si>
     <t>React 응용
@@ -331,10 +328,6 @@
   </si>
   <si>
     <t>1차 팔로우업 / 2차 주제선정</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1차 팔로우업 / 2차 분석,설계</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -367,6 +360,30 @@
   <si>
     <t>React 응용
 PHP 연결구현</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차 팔로우업 / 2차 주제선정</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> 2차 주제선정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> + 분석설계</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>도깨비 PJ v2. / 보그 PJ</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -702,7 +719,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -757,9 +774,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -904,6 +918,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -925,19 +951,7 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1249,10 +1263,10 @@
   <dimension ref="A2:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="7.25" style="3" bestFit="1" customWidth="1"/>
@@ -1268,42 +1282,42 @@
     <col min="12" max="12" width="12.375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" ht="53.25" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B2" s="71" t="s">
+    <row r="2" spans="1:12" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="73"/>
-    </row>
-    <row r="3" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-    </row>
-    <row r="4" spans="1:12" s="4" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="76"/>
+    </row>
+    <row r="3" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
+    </row>
+    <row r="4" spans="1:12" s="4" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="68" t="s">
+      <c r="C4" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
       <c r="F4" s="9" t="s">
         <v>10</v>
       </c>
@@ -1311,413 +1325,413 @@
         <v>25</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I4" s="9" t="s">
         <v>27</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B5" s="40" t="s">
+    <row r="5" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="41">
+      <c r="C5" s="40">
         <v>45134</v>
       </c>
-      <c r="D5" s="42" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="41">
+      <c r="D5" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="40">
         <v>45135</v>
       </c>
-      <c r="F5" s="43">
+      <c r="F5" s="42">
         <f>DAYS360(C5,E5)+1</f>
         <v>2</v>
       </c>
-      <c r="G5" s="44" t="s">
+      <c r="G5" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="45" t="s">
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="L5" s="46" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B6" s="48" t="s">
+      <c r="L5" s="45" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="49">
+      <c r="C6" s="48">
         <v>45138</v>
       </c>
-      <c r="D6" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="49">
+      <c r="D6" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="48">
         <v>45142</v>
       </c>
-      <c r="F6" s="51">
+      <c r="F6" s="50">
         <f t="shared" ref="F6:F30" si="0">DAYS360(C6,E6)+1</f>
         <v>5</v>
       </c>
-      <c r="G6" s="44" t="s">
+      <c r="G6" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="52"/>
-      <c r="I6" s="50" t="s">
+      <c r="H6" s="51"/>
+      <c r="I6" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="J6" s="50" t="s">
+      <c r="J6" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="53" t="s">
+      <c r="K6" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="L6" s="54"/>
-    </row>
-    <row r="7" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B7" s="48" t="s">
+      <c r="L6" s="53"/>
+    </row>
+    <row r="7" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="49">
+      <c r="C7" s="48">
         <v>45145</v>
       </c>
-      <c r="D7" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="49">
+      <c r="D7" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="48">
         <v>45149</v>
       </c>
-      <c r="F7" s="51">
+      <c r="F7" s="50">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G7" s="44" t="s">
+      <c r="G7" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="H7" s="55" t="s">
+      <c r="H7" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="I7" s="50" t="s">
+      <c r="I7" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="J7" s="50" t="s">
+      <c r="J7" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="K7" s="53" t="s">
+      <c r="K7" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="L7" s="54"/>
-    </row>
-    <row r="8" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B8" s="48" t="s">
+      <c r="L7" s="53"/>
+    </row>
+    <row r="8" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="49">
+      <c r="C8" s="48">
         <v>45152</v>
       </c>
-      <c r="D8" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="49">
+      <c r="D8" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="48">
         <v>45156</v>
       </c>
-      <c r="F8" s="51">
+      <c r="F8" s="50">
         <f>DAYS360(C8,E8)</f>
         <v>4</v>
       </c>
-      <c r="G8" s="44" t="s">
+      <c r="G8" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="56"/>
-      <c r="I8" s="50" t="s">
+      <c r="H8" s="55"/>
+      <c r="I8" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="J8" s="50" t="s">
-        <v>53</v>
-      </c>
-      <c r="K8" s="53" t="s">
+      <c r="J8" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="K8" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="L8" s="54"/>
-    </row>
-    <row r="9" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B9" s="48" t="s">
+      <c r="L8" s="53"/>
+    </row>
+    <row r="9" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="49">
+      <c r="C9" s="48">
         <v>45159</v>
       </c>
-      <c r="D9" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="49">
+      <c r="D9" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="48">
         <v>45163</v>
       </c>
-      <c r="F9" s="51">
+      <c r="F9" s="50">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G9" s="44" t="s">
+      <c r="G9" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="H9" s="52"/>
-      <c r="I9" s="50" t="s">
+      <c r="H9" s="51"/>
+      <c r="I9" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="J9" s="50" t="s">
+      <c r="J9" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="K9" s="53" t="s">
+      <c r="K9" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="L9" s="54"/>
-    </row>
-    <row r="10" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B10" s="48" t="s">
+      <c r="L9" s="53"/>
+    </row>
+    <row r="10" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="49">
+      <c r="C10" s="48">
         <v>45166</v>
       </c>
-      <c r="D10" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="49">
+      <c r="D10" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="48">
         <v>45170</v>
       </c>
-      <c r="F10" s="51">
+      <c r="F10" s="50">
         <f>DAYS360(C10,E10)+2</f>
         <v>5</v>
       </c>
-      <c r="G10" s="44" t="s">
+      <c r="G10" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="56">
+      <c r="H10" s="55">
         <v>45166</v>
       </c>
-      <c r="I10" s="50" t="s">
+      <c r="I10" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="J10" s="50" t="s">
-        <v>81</v>
-      </c>
-      <c r="K10" s="53" t="s">
+      <c r="J10" s="49" t="s">
+        <v>80</v>
+      </c>
+      <c r="K10" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="L10" s="54"/>
-    </row>
-    <row r="11" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B11" s="48" t="s">
+      <c r="L10" s="53"/>
+    </row>
+    <row r="11" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="49">
+      <c r="C11" s="48">
         <v>45173</v>
       </c>
-      <c r="D11" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="49">
+      <c r="D11" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="48">
         <v>45177</v>
       </c>
-      <c r="F11" s="51">
+      <c r="F11" s="50">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G11" s="44" t="s">
-        <v>57</v>
-      </c>
-      <c r="H11" s="56"/>
-      <c r="I11" s="53" t="s">
+      <c r="G11" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="H11" s="55"/>
+      <c r="I11" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="J11" s="50" t="s">
-        <v>81</v>
-      </c>
-      <c r="K11" s="53" t="s">
+      <c r="J11" s="49" t="s">
+        <v>80</v>
+      </c>
+      <c r="K11" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="L11" s="54"/>
-    </row>
-    <row r="12" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B12" s="57" t="s">
+      <c r="L11" s="53"/>
+    </row>
+    <row r="12" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="58">
+      <c r="C12" s="57">
         <v>45180</v>
       </c>
-      <c r="D12" s="59" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="58">
+      <c r="D12" s="58" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="57">
         <v>45184</v>
       </c>
-      <c r="F12" s="60">
+      <c r="F12" s="59">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G12" s="61" t="s">
-        <v>57</v>
-      </c>
-      <c r="H12" s="62"/>
-      <c r="I12" s="63" t="s">
+      <c r="G12" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="H12" s="61"/>
+      <c r="I12" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="J12" s="59" t="s">
-        <v>81</v>
-      </c>
-      <c r="K12" s="63" t="s">
+      <c r="J12" s="58" t="s">
+        <v>80</v>
+      </c>
+      <c r="K12" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="L12" s="64"/>
-    </row>
-    <row r="13" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B13" s="57" t="s">
+      <c r="L12" s="63"/>
+    </row>
+    <row r="13" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="58">
+      <c r="C13" s="57">
         <v>45187</v>
       </c>
-      <c r="D13" s="59" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="58">
+      <c r="D13" s="58" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="57">
         <v>45191</v>
       </c>
-      <c r="F13" s="60">
+      <c r="F13" s="59">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G13" s="61" t="s">
+      <c r="G13" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="H13" s="75">
+      <c r="H13" s="66">
         <v>45190</v>
       </c>
-      <c r="I13" s="76" t="s">
-        <v>87</v>
-      </c>
-      <c r="J13" s="76" t="s">
-        <v>89</v>
-      </c>
-      <c r="K13" s="76" t="s">
-        <v>93</v>
-      </c>
-      <c r="L13" s="64"/>
-    </row>
-    <row r="14" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A14" s="47"/>
-      <c r="B14" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="C14" s="35">
+      <c r="I13" s="67" t="s">
+        <v>86</v>
+      </c>
+      <c r="J13" s="67" t="s">
+        <v>88</v>
+      </c>
+      <c r="K13" s="67" t="s">
+        <v>91</v>
+      </c>
+      <c r="L13" s="63"/>
+    </row>
+    <row r="14" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="56" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="57">
         <v>45194</v>
       </c>
-      <c r="D14" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="35">
+      <c r="D14" s="58" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="57">
         <v>45196</v>
       </c>
-      <c r="F14" s="37">
+      <c r="F14" s="59">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G14" s="38" t="s">
+      <c r="G14" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="H14" s="74"/>
-      <c r="I14" s="65" t="s">
+      <c r="H14" s="61"/>
+      <c r="I14" s="67" t="s">
+        <v>89</v>
+      </c>
+      <c r="J14" s="69" t="s">
         <v>90</v>
       </c>
-      <c r="J14" s="77" t="s">
-        <v>91</v>
-      </c>
-      <c r="K14" s="65" t="s">
-        <v>94</v>
-      </c>
-      <c r="L14" s="39"/>
-    </row>
-    <row r="15" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B15" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="C15" s="12">
+      <c r="K14" s="67" t="s">
+        <v>92</v>
+      </c>
+      <c r="L14" s="63"/>
+    </row>
+    <row r="15" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="57">
         <v>45203</v>
       </c>
-      <c r="D15" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="12">
+      <c r="D15" s="58" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="57">
         <v>45205</v>
       </c>
-      <c r="F15" s="28">
+      <c r="F15" s="59">
         <f>DAYS360(C15,E15)+1</f>
         <v>3</v>
       </c>
-      <c r="G15" s="10" t="s">
+      <c r="G15" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="H15" s="15"/>
-      <c r="I15" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="J15" s="78" t="s">
-        <v>92</v>
-      </c>
-      <c r="K15" s="66" t="s">
+      <c r="H15" s="61"/>
+      <c r="I15" s="67" t="s">
+        <v>97</v>
+      </c>
+      <c r="J15" s="69" t="s">
         <v>95</v>
       </c>
-      <c r="L15" s="17"/>
-    </row>
-    <row r="16" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B16" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C16" s="12">
+      <c r="K15" s="67" t="s">
+        <v>93</v>
+      </c>
+      <c r="L15" s="63"/>
+    </row>
+    <row r="16" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="46"/>
+      <c r="B16" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="34">
         <v>45209</v>
       </c>
-      <c r="D16" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="12">
+      <c r="D16" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="34">
         <v>45212</v>
       </c>
-      <c r="F16" s="28">
+      <c r="F16" s="36">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G16" s="10" t="s">
+      <c r="G16" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="H16" s="18"/>
-      <c r="I16" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="J16" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="K16" s="66" t="s">
-        <v>88</v>
-      </c>
-      <c r="L16" s="17"/>
-    </row>
-    <row r="17" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="H16" s="77"/>
+      <c r="I16" s="64" t="s">
+        <v>97</v>
+      </c>
+      <c r="J16" s="68" t="s">
+        <v>96</v>
+      </c>
+      <c r="K16" s="64" t="s">
+        <v>87</v>
+      </c>
+      <c r="L16" s="38"/>
+    </row>
+    <row r="17" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C17" s="12">
         <v>45215</v>
@@ -1735,23 +1749,23 @@
       <c r="G17" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="H17" s="33">
+      <c r="H17" s="32">
         <v>45215</v>
       </c>
       <c r="I17" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J17" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="K17" s="66" t="s">
-        <v>96</v>
-      </c>
-      <c r="L17" s="32"/>
-    </row>
-    <row r="18" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.6">
+        <v>79</v>
+      </c>
+      <c r="K17" s="65" t="s">
+        <v>94</v>
+      </c>
+      <c r="L17" s="31"/>
+    </row>
+    <row r="18" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C18" s="12">
         <v>45222</v>
@@ -1767,23 +1781,23 @@
         <v>5</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H18" s="15"/>
       <c r="I18" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J18" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K18" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L18" s="17"/>
     </row>
-    <row r="19" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="19" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C19" s="12">
         <v>45229</v>
@@ -1801,23 +1815,23 @@
       <c r="G19" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="H19" s="33">
+      <c r="H19" s="32">
         <v>45229</v>
       </c>
       <c r="I19" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J19" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K19" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L19" s="17"/>
     </row>
-    <row r="20" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="20" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C20" s="12">
         <v>45236</v>
@@ -1837,21 +1851,21 @@
       </c>
       <c r="H20" s="15"/>
       <c r="I20" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J20" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K20" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="L20" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="L20" s="20" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="21" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C21" s="12">
         <v>45243</v>
@@ -1869,23 +1883,23 @@
       <c r="G21" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="H21" s="33">
+      <c r="H21" s="32">
         <v>45243</v>
       </c>
       <c r="I21" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J21" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K21" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L21" s="17"/>
     </row>
-    <row r="22" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="22" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C22" s="12">
         <v>45250</v>
@@ -1901,23 +1915,23 @@
         <v>5</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H22" s="15"/>
       <c r="I22" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="J22" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="J22" s="13" t="s">
-        <v>80</v>
-      </c>
       <c r="K22" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L22" s="17"/>
     </row>
-    <row r="23" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="23" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C23" s="12">
         <v>45257</v>
@@ -1933,23 +1947,23 @@
         <v>5</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H23" s="15"/>
       <c r="I23" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="J23" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="J23" s="13" t="s">
-        <v>80</v>
-      </c>
       <c r="K23" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L23" s="17"/>
     </row>
-    <row r="24" spans="2:12" ht="55.5" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="24" spans="2:12" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C24" s="12">
         <v>45264</v>
@@ -1967,11 +1981,11 @@
       <c r="G24" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="H24" s="33">
+      <c r="H24" s="32">
         <v>45264</v>
       </c>
       <c r="I24" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J24" s="16" t="s">
         <v>22</v>
@@ -1979,11 +1993,11 @@
       <c r="K24" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="L24" s="19"/>
-    </row>
-    <row r="25" spans="2:12" ht="57.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="L24" s="18"/>
+    </row>
+    <row r="25" spans="2:12" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C25" s="12">
         <v>45271</v>
@@ -2001,9 +2015,9 @@
       <c r="G25" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="H25" s="20"/>
+      <c r="H25" s="19"/>
       <c r="I25" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J25" s="13" t="s">
         <v>3</v>
@@ -2011,11 +2025,11 @@
       <c r="K25" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="L25" s="19"/>
-    </row>
-    <row r="26" spans="2:12" ht="51" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="L25" s="18"/>
+    </row>
+    <row r="26" spans="2:12" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C26" s="12">
         <v>45278</v>
@@ -2033,9 +2047,9 @@
       <c r="G26" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="H26" s="20"/>
+      <c r="H26" s="19"/>
       <c r="I26" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J26" s="13" t="s">
         <v>29</v>
@@ -2043,11 +2057,11 @@
       <c r="K26" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="L26" s="21"/>
-    </row>
-    <row r="27" spans="2:12" ht="51" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="L26" s="20"/>
+    </row>
+    <row r="27" spans="2:12" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C27" s="12">
         <v>45286</v>
@@ -2058,30 +2072,30 @@
       <c r="E27" s="12">
         <v>45289</v>
       </c>
-      <c r="F27" s="28">
+      <c r="F27" s="27">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="G27" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="H27" s="33">
+      <c r="H27" s="32">
         <v>45286</v>
       </c>
       <c r="I27" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J27" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K27" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="L27" s="21"/>
-    </row>
-    <row r="28" spans="2:12" ht="51" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="L27" s="20"/>
+    </row>
+    <row r="28" spans="2:12" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C28" s="12">
         <v>45293</v>
@@ -2092,28 +2106,28 @@
       <c r="E28" s="12">
         <v>45296</v>
       </c>
-      <c r="F28" s="28">
+      <c r="F28" s="27">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="H28" s="20"/>
+        <v>57</v>
+      </c>
+      <c r="H28" s="19"/>
       <c r="I28" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J28" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="K28" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="K28" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="L28" s="21"/>
-    </row>
-    <row r="29" spans="2:12" ht="51" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="L28" s="20"/>
+    </row>
+    <row r="29" spans="2:12" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C29" s="12">
         <v>45299</v>
@@ -2129,55 +2143,55 @@
         <v>5</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="H29" s="20"/>
+        <v>57</v>
+      </c>
+      <c r="H29" s="19"/>
       <c r="I29" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J29" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="K29" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="K29" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="L29" s="21"/>
-    </row>
-    <row r="30" spans="2:12" ht="51" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B30" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="C30" s="23">
+      <c r="L29" s="20"/>
+    </row>
+    <row r="30" spans="2:12" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="22">
         <v>45306</v>
       </c>
-      <c r="D30" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E30" s="23">
+      <c r="D30" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="22">
         <v>45310</v>
       </c>
-      <c r="F30" s="25">
+      <c r="F30" s="24">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G30" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="H30" s="29"/>
-      <c r="I30" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="J30" s="27" t="s">
+      <c r="G30" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="H30" s="28"/>
+      <c r="I30" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="J30" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="K30" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="L30" s="31" t="s">
+      <c r="K30" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="L30" s="30" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="2:12" ht="47.25" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="31" spans="2:12" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="5">
@@ -2185,33 +2199,33 @@
         <v>119</v>
       </c>
     </row>
-    <row r="32" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B32" s="69" t="s">
+    <row r="32" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="69"/>
-      <c r="D32" s="69"/>
-      <c r="E32" s="69"/>
-      <c r="F32" s="69"/>
-      <c r="G32" s="69"/>
-      <c r="H32" s="69"/>
-      <c r="I32" s="69"/>
-      <c r="J32" s="69"/>
-      <c r="K32" s="69"/>
-    </row>
-    <row r="33" spans="2:11" s="6" customFormat="1" ht="20.65" x14ac:dyDescent="0.6">
-      <c r="B33" s="70" t="s">
+      <c r="C32" s="72"/>
+      <c r="D32" s="72"/>
+      <c r="E32" s="72"/>
+      <c r="F32" s="72"/>
+      <c r="G32" s="72"/>
+      <c r="H32" s="72"/>
+      <c r="I32" s="72"/>
+      <c r="J32" s="72"/>
+      <c r="K32" s="72"/>
+    </row>
+    <row r="33" spans="2:11" s="6" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B33" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="C33" s="70"/>
-      <c r="D33" s="70"/>
-      <c r="E33" s="70"/>
-      <c r="F33" s="70"/>
-      <c r="G33" s="70"/>
-      <c r="H33" s="70"/>
-      <c r="I33" s="70"/>
-      <c r="J33" s="70"/>
-      <c r="K33" s="70"/>
+      <c r="C33" s="73"/>
+      <c r="D33" s="73"/>
+      <c r="E33" s="73"/>
+      <c r="F33" s="73"/>
+      <c r="G33" s="73"/>
+      <c r="H33" s="73"/>
+      <c r="I33" s="73"/>
+      <c r="J33" s="73"/>
+      <c r="K33" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2234,7 +2248,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
@@ -2249,7 +2263,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>

--- a/000.커리큐럼/주단위상세일정엑셀/FED-RF-2023-TOM_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/FED-RF-2023-TOM_주단위상세일정.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="102">
   <si>
     <t>개발환경셋팅: VS Code + Server + GitHub
 HTML 기초 + CSS 기초</t>
@@ -384,6 +384,22 @@
   </si>
   <si>
     <t>도깨비 PJ v2. / 보그 PJ</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>DC PJ</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>DC PJ</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일럿 PJ</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일럿 PJ</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -719,7 +735,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -807,15 +823,9 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -834,9 +844,6 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -912,22 +919,22 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -951,7 +958,13 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1263,7 +1276,7 @@
   <dimension ref="A2:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1282,42 +1295,42 @@
     <col min="12" max="12" width="12.375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="74" t="s">
+    <row r="2" spans="2:12" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="76"/>
-    </row>
-    <row r="3" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="70"/>
-      <c r="K3" s="70"/>
-    </row>
-    <row r="4" spans="1:12" s="4" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="73"/>
+    </row>
+    <row r="3" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+    </row>
+    <row r="4" spans="2:12" s="4" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="71" t="s">
+      <c r="C4" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
       <c r="F4" s="9" t="s">
         <v>10</v>
       </c>
@@ -1340,462 +1353,462 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="39" t="s">
+    <row r="5" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="40">
+      <c r="C5" s="37">
         <v>45134</v>
       </c>
-      <c r="D5" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="40">
+      <c r="D5" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="37">
         <v>45135</v>
       </c>
-      <c r="F5" s="42">
+      <c r="F5" s="39">
         <f>DAYS360(C5,E5)+1</f>
         <v>2</v>
       </c>
-      <c r="G5" s="43" t="s">
+      <c r="G5" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="44" t="s">
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="L5" s="45" t="s">
+      <c r="L5" s="42" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="47" t="s">
+    <row r="6" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="48">
+      <c r="C6" s="45">
         <v>45138</v>
       </c>
-      <c r="D6" s="49" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="48">
+      <c r="D6" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="45">
         <v>45142</v>
       </c>
-      <c r="F6" s="50">
+      <c r="F6" s="47">
         <f t="shared" ref="F6:F30" si="0">DAYS360(C6,E6)+1</f>
         <v>5</v>
       </c>
-      <c r="G6" s="43" t="s">
+      <c r="G6" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="51"/>
-      <c r="I6" s="49" t="s">
+      <c r="H6" s="48"/>
+      <c r="I6" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="J6" s="49" t="s">
+      <c r="J6" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="52" t="s">
+      <c r="K6" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="L6" s="53"/>
-    </row>
-    <row r="7" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="47" t="s">
+      <c r="L6" s="50"/>
+    </row>
+    <row r="7" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="48">
+      <c r="C7" s="45">
         <v>45145</v>
       </c>
-      <c r="D7" s="49" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="48">
+      <c r="D7" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="45">
         <v>45149</v>
       </c>
-      <c r="F7" s="50">
+      <c r="F7" s="47">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G7" s="43" t="s">
+      <c r="G7" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="H7" s="54" t="s">
+      <c r="H7" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="I7" s="49" t="s">
+      <c r="I7" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="J7" s="49" t="s">
+      <c r="J7" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="K7" s="52" t="s">
+      <c r="K7" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="L7" s="53"/>
-    </row>
-    <row r="8" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="47" t="s">
+      <c r="L7" s="50"/>
+    </row>
+    <row r="8" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="48">
+      <c r="C8" s="45">
         <v>45152</v>
       </c>
-      <c r="D8" s="49" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="48">
+      <c r="D8" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="45">
         <v>45156</v>
       </c>
-      <c r="F8" s="50">
+      <c r="F8" s="47">
         <f>DAYS360(C8,E8)</f>
         <v>4</v>
       </c>
-      <c r="G8" s="43" t="s">
+      <c r="G8" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="55"/>
-      <c r="I8" s="49" t="s">
+      <c r="H8" s="52"/>
+      <c r="I8" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="J8" s="49" t="s">
+      <c r="J8" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="K8" s="52" t="s">
+      <c r="K8" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="L8" s="53"/>
-    </row>
-    <row r="9" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="47" t="s">
+      <c r="L8" s="50"/>
+    </row>
+    <row r="9" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="48">
+      <c r="C9" s="45">
         <v>45159</v>
       </c>
-      <c r="D9" s="49" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="48">
+      <c r="D9" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="45">
         <v>45163</v>
       </c>
-      <c r="F9" s="50">
+      <c r="F9" s="47">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G9" s="43" t="s">
+      <c r="G9" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="H9" s="51"/>
-      <c r="I9" s="49" t="s">
+      <c r="H9" s="48"/>
+      <c r="I9" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="J9" s="49" t="s">
+      <c r="J9" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="K9" s="52" t="s">
+      <c r="K9" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="L9" s="53"/>
-    </row>
-    <row r="10" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="47" t="s">
+      <c r="L9" s="50"/>
+    </row>
+    <row r="10" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="48">
+      <c r="C10" s="45">
         <v>45166</v>
       </c>
-      <c r="D10" s="49" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="48">
+      <c r="D10" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="45">
         <v>45170</v>
       </c>
-      <c r="F10" s="50">
+      <c r="F10" s="47">
         <f>DAYS360(C10,E10)+2</f>
         <v>5</v>
       </c>
-      <c r="G10" s="43" t="s">
+      <c r="G10" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="55">
+      <c r="H10" s="52">
         <v>45166</v>
       </c>
-      <c r="I10" s="49" t="s">
+      <c r="I10" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="J10" s="49" t="s">
+      <c r="J10" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="K10" s="52" t="s">
+      <c r="K10" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="L10" s="53"/>
-    </row>
-    <row r="11" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="47" t="s">
+      <c r="L10" s="50"/>
+    </row>
+    <row r="11" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="48">
+      <c r="C11" s="45">
         <v>45173</v>
       </c>
-      <c r="D11" s="49" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="48">
+      <c r="D11" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="45">
         <v>45177</v>
       </c>
-      <c r="F11" s="50">
+      <c r="F11" s="47">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G11" s="43" t="s">
+      <c r="G11" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="H11" s="55"/>
-      <c r="I11" s="52" t="s">
+      <c r="H11" s="52"/>
+      <c r="I11" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="J11" s="49" t="s">
+      <c r="J11" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="K11" s="52" t="s">
+      <c r="K11" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="L11" s="53"/>
-    </row>
-    <row r="12" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="56" t="s">
+      <c r="L11" s="50"/>
+    </row>
+    <row r="12" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="57">
+      <c r="C12" s="54">
         <v>45180</v>
       </c>
-      <c r="D12" s="58" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="57">
+      <c r="D12" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="54">
         <v>45184</v>
       </c>
-      <c r="F12" s="59">
+      <c r="F12" s="56">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G12" s="60" t="s">
+      <c r="G12" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="H12" s="61"/>
-      <c r="I12" s="62" t="s">
+      <c r="H12" s="58"/>
+      <c r="I12" s="59" t="s">
         <v>50</v>
       </c>
-      <c r="J12" s="58" t="s">
+      <c r="J12" s="55" t="s">
         <v>80</v>
       </c>
-      <c r="K12" s="62" t="s">
+      <c r="K12" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="L12" s="63"/>
-    </row>
-    <row r="13" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="56" t="s">
+      <c r="L12" s="60"/>
+    </row>
+    <row r="13" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="57">
+      <c r="C13" s="54">
         <v>45187</v>
       </c>
-      <c r="D13" s="58" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="57">
+      <c r="D13" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="54">
         <v>45191</v>
       </c>
-      <c r="F13" s="59">
+      <c r="F13" s="56">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G13" s="60" t="s">
+      <c r="G13" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="H13" s="66">
+      <c r="H13" s="61">
         <v>45190</v>
       </c>
-      <c r="I13" s="67" t="s">
+      <c r="I13" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="J13" s="67" t="s">
+      <c r="J13" s="62" t="s">
         <v>88</v>
       </c>
-      <c r="K13" s="67" t="s">
+      <c r="K13" s="62" t="s">
         <v>91</v>
       </c>
-      <c r="L13" s="63"/>
-    </row>
-    <row r="14" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="56" t="s">
+      <c r="L13" s="60"/>
+    </row>
+    <row r="14" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="C14" s="57">
+      <c r="C14" s="54">
         <v>45194</v>
       </c>
-      <c r="D14" s="58" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="57">
+      <c r="D14" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="54">
         <v>45196</v>
       </c>
-      <c r="F14" s="59">
+      <c r="F14" s="56">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G14" s="60" t="s">
+      <c r="G14" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="H14" s="61"/>
-      <c r="I14" s="67" t="s">
+      <c r="H14" s="58"/>
+      <c r="I14" s="62" t="s">
         <v>89</v>
       </c>
-      <c r="J14" s="69" t="s">
+      <c r="J14" s="63" t="s">
         <v>90</v>
       </c>
-      <c r="K14" s="67" t="s">
+      <c r="K14" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="L14" s="63"/>
-    </row>
-    <row r="15" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="56" t="s">
+      <c r="L14" s="60"/>
+    </row>
+    <row r="15" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="C15" s="57">
+      <c r="C15" s="54">
         <v>45203</v>
       </c>
-      <c r="D15" s="58" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="57">
+      <c r="D15" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="54">
         <v>45205</v>
       </c>
-      <c r="F15" s="59">
+      <c r="F15" s="56">
         <f>DAYS360(C15,E15)+1</f>
         <v>3</v>
       </c>
-      <c r="G15" s="60" t="s">
+      <c r="G15" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="H15" s="61"/>
-      <c r="I15" s="67" t="s">
+      <c r="H15" s="58"/>
+      <c r="I15" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="J15" s="69" t="s">
+      <c r="J15" s="63" t="s">
         <v>95</v>
       </c>
-      <c r="K15" s="67" t="s">
+      <c r="K15" s="62" t="s">
         <v>93</v>
       </c>
-      <c r="L15" s="63"/>
-    </row>
-    <row r="16" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="46"/>
-      <c r="B16" s="33" t="s">
+      <c r="L15" s="60"/>
+    </row>
+    <row r="16" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="34">
+      <c r="C16" s="54">
         <v>45209</v>
       </c>
-      <c r="D16" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="34">
+      <c r="D16" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="54">
         <v>45212</v>
       </c>
-      <c r="F16" s="36">
+      <c r="F16" s="56">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G16" s="37" t="s">
+      <c r="G16" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="H16" s="77"/>
-      <c r="I16" s="64" t="s">
+      <c r="H16" s="61"/>
+      <c r="I16" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="J16" s="68" t="s">
+      <c r="J16" s="63" t="s">
         <v>96</v>
       </c>
-      <c r="K16" s="64" t="s">
+      <c r="K16" s="62" t="s">
         <v>87</v>
       </c>
-      <c r="L16" s="38"/>
-    </row>
-    <row r="17" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="11" t="s">
+      <c r="L16" s="60"/>
+    </row>
+    <row r="17" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="54">
         <v>45215</v>
       </c>
-      <c r="D17" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="12">
+      <c r="D17" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="54">
         <v>45219</v>
       </c>
-      <c r="F17" s="14">
+      <c r="F17" s="56">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G17" s="10" t="s">
+      <c r="G17" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="H17" s="32">
+      <c r="H17" s="61">
         <v>45215</v>
       </c>
-      <c r="I17" s="16" t="s">
+      <c r="I17" s="59" t="s">
         <v>77</v>
       </c>
-      <c r="J17" s="13" t="s">
+      <c r="J17" s="55" t="s">
         <v>79</v>
       </c>
-      <c r="K17" s="65" t="s">
+      <c r="K17" s="62" t="s">
         <v>94</v>
       </c>
-      <c r="L17" s="31"/>
-    </row>
-    <row r="18" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="11" t="s">
+      <c r="L17" s="76"/>
+    </row>
+    <row r="18" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="43"/>
+      <c r="B18" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="32">
         <v>45222</v>
       </c>
-      <c r="D18" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="12">
+      <c r="D18" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="32">
         <v>45226</v>
       </c>
-      <c r="F18" s="14">
+      <c r="F18" s="34">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G18" s="10" t="s">
+      <c r="G18" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="H18" s="15"/>
-      <c r="I18" s="16" t="s">
+      <c r="H18" s="74"/>
+      <c r="I18" s="64" t="s">
         <v>77</v>
       </c>
-      <c r="J18" s="13" t="s">
+      <c r="J18" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="K18" s="16" t="s">
+      <c r="K18" s="64" t="s">
         <v>51</v>
       </c>
-      <c r="L18" s="17"/>
-    </row>
-    <row r="19" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L18" s="75"/>
+    </row>
+    <row r="19" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="11" t="s">
         <v>65</v>
       </c>
@@ -1815,7 +1828,7 @@
       <c r="G19" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="H19" s="32">
+      <c r="H19" s="30">
         <v>45229</v>
       </c>
       <c r="I19" s="16" t="s">
@@ -1829,7 +1842,7 @@
       </c>
       <c r="L19" s="17"/>
     </row>
-    <row r="20" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="11" t="s">
         <v>68</v>
       </c>
@@ -1863,7 +1876,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="11" t="s">
         <v>67</v>
       </c>
@@ -1883,7 +1896,7 @@
       <c r="G21" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="H21" s="32">
+      <c r="H21" s="30">
         <v>45243</v>
       </c>
       <c r="I21" s="16" t="s">
@@ -1897,7 +1910,7 @@
       </c>
       <c r="L21" s="17"/>
     </row>
-    <row r="22" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="11" t="s">
         <v>62</v>
       </c>
@@ -1919,7 +1932,7 @@
       </c>
       <c r="H22" s="15"/>
       <c r="I22" s="15" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="J22" s="13" t="s">
         <v>79</v>
@@ -1929,7 +1942,7 @@
       </c>
       <c r="L22" s="17"/>
     </row>
-    <row r="23" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="11" t="s">
         <v>73</v>
       </c>
@@ -1950,8 +1963,8 @@
         <v>53</v>
       </c>
       <c r="H23" s="15"/>
-      <c r="I23" s="15" t="s">
-        <v>78</v>
+      <c r="I23" s="65" t="s">
+        <v>98</v>
       </c>
       <c r="J23" s="13" t="s">
         <v>79</v>
@@ -1961,7 +1974,7 @@
       </c>
       <c r="L23" s="17"/>
     </row>
-    <row r="24" spans="2:12" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="11" t="s">
         <v>63</v>
       </c>
@@ -1981,11 +1994,11 @@
       <c r="G24" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="H24" s="32">
+      <c r="H24" s="30">
         <v>45264</v>
       </c>
-      <c r="I24" s="15" t="s">
-        <v>78</v>
+      <c r="I24" s="65" t="s">
+        <v>99</v>
       </c>
       <c r="J24" s="16" t="s">
         <v>22</v>
@@ -1995,7 +2008,7 @@
       </c>
       <c r="L24" s="18"/>
     </row>
-    <row r="25" spans="2:12" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="11" t="s">
         <v>76</v>
       </c>
@@ -2016,8 +2029,8 @@
         <v>48</v>
       </c>
       <c r="H25" s="19"/>
-      <c r="I25" s="15" t="s">
-        <v>78</v>
+      <c r="I25" s="65" t="s">
+        <v>100</v>
       </c>
       <c r="J25" s="13" t="s">
         <v>3</v>
@@ -2027,7 +2040,7 @@
       </c>
       <c r="L25" s="18"/>
     </row>
-    <row r="26" spans="2:12" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="11" t="s">
         <v>58</v>
       </c>
@@ -2048,8 +2061,8 @@
         <v>48</v>
       </c>
       <c r="H26" s="19"/>
-      <c r="I26" s="15" t="s">
-        <v>78</v>
+      <c r="I26" s="65" t="s">
+        <v>101</v>
       </c>
       <c r="J26" s="13" t="s">
         <v>29</v>
@@ -2059,7 +2072,7 @@
       </c>
       <c r="L26" s="20"/>
     </row>
-    <row r="27" spans="2:12" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="11" t="s">
         <v>71</v>
       </c>
@@ -2079,7 +2092,7 @@
       <c r="G27" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="H27" s="32">
+      <c r="H27" s="30">
         <v>45286</v>
       </c>
       <c r="I27" s="15" t="s">
@@ -2093,7 +2106,7 @@
       </c>
       <c r="L27" s="20"/>
     </row>
-    <row r="28" spans="2:12" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="11" t="s">
         <v>72</v>
       </c>
@@ -2115,7 +2128,7 @@
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="15" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="J28" s="13" t="s">
         <v>83</v>
@@ -2125,7 +2138,7 @@
       </c>
       <c r="L28" s="20"/>
     </row>
-    <row r="29" spans="2:12" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="11" t="s">
         <v>59</v>
       </c>
@@ -2146,8 +2159,8 @@
         <v>57</v>
       </c>
       <c r="H29" s="19"/>
-      <c r="I29" s="15" t="s">
-        <v>81</v>
+      <c r="I29" s="65" t="s">
+        <v>101</v>
       </c>
       <c r="J29" s="13" t="s">
         <v>83</v>
@@ -2157,7 +2170,7 @@
       </c>
       <c r="L29" s="20"/>
     </row>
-    <row r="30" spans="2:12" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="21" t="s">
         <v>60</v>
       </c>
@@ -2178,8 +2191,8 @@
         <v>57</v>
       </c>
       <c r="H30" s="28"/>
-      <c r="I30" s="29" t="s">
-        <v>81</v>
+      <c r="I30" s="66" t="s">
+        <v>100</v>
       </c>
       <c r="J30" s="26" t="s">
         <v>20</v>
@@ -2187,11 +2200,11 @@
       <c r="K30" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="L30" s="30" t="s">
+      <c r="L30" s="29" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="2:12" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="5">
@@ -2199,33 +2212,33 @@
         <v>119</v>
       </c>
     </row>
-    <row r="32" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="72" t="s">
+    <row r="32" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="72"/>
-      <c r="D32" s="72"/>
-      <c r="E32" s="72"/>
-      <c r="F32" s="72"/>
-      <c r="G32" s="72"/>
-      <c r="H32" s="72"/>
-      <c r="I32" s="72"/>
-      <c r="J32" s="72"/>
-      <c r="K32" s="72"/>
+      <c r="C32" s="69"/>
+      <c r="D32" s="69"/>
+      <c r="E32" s="69"/>
+      <c r="F32" s="69"/>
+      <c r="G32" s="69"/>
+      <c r="H32" s="69"/>
+      <c r="I32" s="69"/>
+      <c r="J32" s="69"/>
+      <c r="K32" s="69"/>
     </row>
     <row r="33" spans="2:11" s="6" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B33" s="73" t="s">
+      <c r="B33" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="C33" s="73"/>
-      <c r="D33" s="73"/>
-      <c r="E33" s="73"/>
-      <c r="F33" s="73"/>
-      <c r="G33" s="73"/>
-      <c r="H33" s="73"/>
-      <c r="I33" s="73"/>
-      <c r="J33" s="73"/>
-      <c r="K33" s="73"/>
+      <c r="C33" s="70"/>
+      <c r="D33" s="70"/>
+      <c r="E33" s="70"/>
+      <c r="F33" s="70"/>
+      <c r="G33" s="70"/>
+      <c r="H33" s="70"/>
+      <c r="I33" s="70"/>
+      <c r="J33" s="70"/>
+      <c r="K33" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/000.커리큐럼/주단위상세일정엑셀/FED-RF-2023-TOM_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/FED-RF-2023-TOM_주단위상세일정.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitTom\FED-RF-2023-TOM\000.커리큐럼\주단위상세일정엑셀\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20235" windowHeight="6810"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="105">
   <si>
     <t>개발환경셋팅: VS Code + Server + GitHub
 HTML 기초 + CSS 기초</t>
@@ -188,10 +193,6 @@
   </si>
   <si>
     <t>도깨비 PJ v1. / CGV PJ</t>
-  </si>
-  <si>
-    <t>React 응용
-PHP 연결구현</t>
   </si>
   <si>
     <t>1차 분석 / 설계 / 레이아웃</t>
@@ -358,11 +359,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>React 응용
-PHP 연결구현</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>1차 팔로우업 / 2차 주제선정</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -402,11 +398,31 @@
     <t>파일럿 PJ</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
+  <si>
+    <t>React 응용</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>React 응용</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>도깨비 PJ v2. / 보그 PJ</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>도깨비 PJ v2. / 보그 PJ</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>도깨비 PJ v2. / 보그 PJ</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="#\ &quot;일&quot;"/>
     <numFmt numFmtId="177" formatCode="&quot;총&quot;\ #\ &quot;일&quot;"/>
@@ -735,7 +751,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -937,6 +953,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -958,14 +980,11 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1276,7 +1295,7 @@
   <dimension ref="A2:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1296,41 +1315,41 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="73"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="75"/>
     </row>
     <row r="3" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="69"/>
     </row>
     <row r="4" spans="2:12" s="4" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="68" t="s">
+      <c r="C4" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
       <c r="F4" s="9" t="s">
         <v>10</v>
       </c>
@@ -1338,16 +1357,16 @@
         <v>25</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I4" s="9" t="s">
         <v>27</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>14</v>
@@ -1380,7 +1399,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="42" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
@@ -1474,7 +1493,7 @@
         <v>26</v>
       </c>
       <c r="J8" s="46" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K8" s="49" t="s">
         <v>46</v>
@@ -1540,7 +1559,7 @@
         <v>26</v>
       </c>
       <c r="J10" s="46" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K10" s="49" t="s">
         <v>37</v>
@@ -1565,14 +1584,14 @@
         <v>5</v>
       </c>
       <c r="G11" s="40" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H11" s="52"/>
       <c r="I11" s="49" t="s">
         <v>50</v>
       </c>
       <c r="J11" s="46" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K11" s="49" t="s">
         <v>37</v>
@@ -1597,14 +1616,14 @@
         <v>5</v>
       </c>
       <c r="G12" s="57" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H12" s="58"/>
       <c r="I12" s="59" t="s">
         <v>50</v>
       </c>
       <c r="J12" s="55" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K12" s="59" t="s">
         <v>39</v>
@@ -1635,19 +1654,19 @@
         <v>45190</v>
       </c>
       <c r="I13" s="62" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J13" s="62" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K13" s="62" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L13" s="60"/>
     </row>
     <row r="14" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="53" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C14" s="54">
         <v>45194</v>
@@ -1667,19 +1686,19 @@
       </c>
       <c r="H14" s="58"/>
       <c r="I14" s="62" t="s">
+        <v>88</v>
+      </c>
+      <c r="J14" s="63" t="s">
         <v>89</v>
       </c>
-      <c r="J14" s="63" t="s">
-        <v>90</v>
-      </c>
       <c r="K14" s="62" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L14" s="60"/>
     </row>
     <row r="15" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C15" s="54">
         <v>45203</v>
@@ -1699,19 +1718,19 @@
       </c>
       <c r="H15" s="58"/>
       <c r="I15" s="62" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J15" s="63" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K15" s="62" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L15" s="60"/>
     </row>
     <row r="16" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="53" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C16" s="54">
         <v>45209</v>
@@ -1731,19 +1750,19 @@
       </c>
       <c r="H16" s="61"/>
       <c r="I16" s="62" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="J16" s="63" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K16" s="62" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L16" s="60"/>
     </row>
     <row r="17" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="53" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C17" s="54">
         <v>45215</v>
@@ -1764,87 +1783,87 @@
       <c r="H17" s="61">
         <v>45215</v>
       </c>
-      <c r="I17" s="59" t="s">
-        <v>77</v>
+      <c r="I17" s="62" t="s">
+        <v>103</v>
       </c>
       <c r="J17" s="55" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K17" s="62" t="s">
-        <v>94</v>
-      </c>
-      <c r="L17" s="76"/>
+        <v>100</v>
+      </c>
+      <c r="L17" s="68"/>
     </row>
     <row r="18" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="43"/>
-      <c r="B18" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="C18" s="32">
+      <c r="B18" s="53" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="54">
         <v>45222</v>
       </c>
-      <c r="D18" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="32">
+      <c r="D18" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="54">
         <v>45226</v>
       </c>
-      <c r="F18" s="34">
+      <c r="F18" s="56">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G18" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="H18" s="74"/>
-      <c r="I18" s="64" t="s">
-        <v>77</v>
-      </c>
-      <c r="J18" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="K18" s="64" t="s">
-        <v>51</v>
-      </c>
-      <c r="L18" s="75"/>
+      <c r="G18" s="57" t="s">
+        <v>54</v>
+      </c>
+      <c r="H18" s="58"/>
+      <c r="I18" s="62" t="s">
+        <v>104</v>
+      </c>
+      <c r="J18" s="55" t="s">
+        <v>78</v>
+      </c>
+      <c r="K18" s="62" t="s">
+        <v>101</v>
+      </c>
+      <c r="L18" s="60"/>
     </row>
     <row r="19" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C19" s="12">
+      <c r="A19" s="43"/>
+      <c r="B19" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="32">
         <v>45229</v>
       </c>
-      <c r="D19" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="12">
+      <c r="D19" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="32">
         <v>45233</v>
       </c>
-      <c r="F19" s="14">
+      <c r="F19" s="34">
         <f>DAYS360(C19,E19)+2</f>
         <v>5</v>
       </c>
-      <c r="G19" s="10" t="s">
+      <c r="G19" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="H19" s="30">
+      <c r="H19" s="76">
         <v>45229</v>
       </c>
-      <c r="I19" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="J19" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="K19" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="L19" s="17"/>
+      <c r="I19" s="77" t="s">
+        <v>103</v>
+      </c>
+      <c r="J19" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="K19" s="64" t="s">
+        <v>53</v>
+      </c>
+      <c r="L19" s="67"/>
     </row>
     <row r="20" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C20" s="12">
         <v>45236</v>
@@ -1864,13 +1883,13 @@
       </c>
       <c r="H20" s="15"/>
       <c r="I20" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J20" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K20" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L20" s="20" t="s">
         <v>31</v>
@@ -1878,7 +1897,7 @@
     </row>
     <row r="21" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C21" s="12">
         <v>45243</v>
@@ -1900,19 +1919,19 @@
         <v>45243</v>
       </c>
       <c r="I21" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J21" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K21" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L21" s="17"/>
     </row>
     <row r="22" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C22" s="12">
         <v>45250</v>
@@ -1928,23 +1947,23 @@
         <v>5</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H22" s="15"/>
       <c r="I22" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J22" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K22" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L22" s="17"/>
     </row>
     <row r="23" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C23" s="12">
         <v>45257</v>
@@ -1960,23 +1979,23 @@
         <v>5</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H23" s="15"/>
       <c r="I23" s="65" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="J23" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K23" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L23" s="17"/>
     </row>
     <row r="24" spans="1:12" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C24" s="12">
         <v>45264</v>
@@ -1998,7 +2017,7 @@
         <v>45264</v>
       </c>
       <c r="I24" s="65" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J24" s="16" t="s">
         <v>22</v>
@@ -2010,7 +2029,7 @@
     </row>
     <row r="25" spans="1:12" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C25" s="12">
         <v>45271</v>
@@ -2030,7 +2049,7 @@
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="65" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J25" s="13" t="s">
         <v>3</v>
@@ -2042,7 +2061,7 @@
     </row>
     <row r="26" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C26" s="12">
         <v>45278</v>
@@ -2062,7 +2081,7 @@
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="65" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="J26" s="13" t="s">
         <v>29</v>
@@ -2074,7 +2093,7 @@
     </row>
     <row r="27" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C27" s="12">
         <v>45286</v>
@@ -2096,10 +2115,10 @@
         <v>45286</v>
       </c>
       <c r="I27" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J27" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K27" s="16" t="s">
         <v>34</v>
@@ -2108,7 +2127,7 @@
     </row>
     <row r="28" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C28" s="12">
         <v>45293</v>
@@ -2124,23 +2143,23 @@
         <v>4</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J28" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="K28" s="16" t="s">
         <v>83</v>
-      </c>
-      <c r="K28" s="16" t="s">
-        <v>84</v>
       </c>
       <c r="L28" s="20"/>
     </row>
     <row r="29" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C29" s="12">
         <v>45299</v>
@@ -2156,23 +2175,23 @@
         <v>5</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="65" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="J29" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="K29" s="16" t="s">
         <v>83</v>
-      </c>
-      <c r="K29" s="16" t="s">
-        <v>84</v>
       </c>
       <c r="L29" s="20"/>
     </row>
     <row r="30" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C30" s="22">
         <v>45306</v>
@@ -2188,17 +2207,17 @@
         <v>5</v>
       </c>
       <c r="G30" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H30" s="28"/>
       <c r="I30" s="66" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J30" s="26" t="s">
         <v>20</v>
       </c>
       <c r="K30" s="26" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L30" s="29" t="s">
         <v>33</v>
@@ -2213,32 +2232,32 @@
       </c>
     </row>
     <row r="32" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="69" t="s">
+      <c r="B32" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="69"/>
-      <c r="D32" s="69"/>
-      <c r="E32" s="69"/>
-      <c r="F32" s="69"/>
-      <c r="G32" s="69"/>
-      <c r="H32" s="69"/>
-      <c r="I32" s="69"/>
-      <c r="J32" s="69"/>
-      <c r="K32" s="69"/>
+      <c r="C32" s="71"/>
+      <c r="D32" s="71"/>
+      <c r="E32" s="71"/>
+      <c r="F32" s="71"/>
+      <c r="G32" s="71"/>
+      <c r="H32" s="71"/>
+      <c r="I32" s="71"/>
+      <c r="J32" s="71"/>
+      <c r="K32" s="71"/>
     </row>
     <row r="33" spans="2:11" s="6" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B33" s="70" t="s">
+      <c r="B33" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="C33" s="70"/>
-      <c r="D33" s="70"/>
-      <c r="E33" s="70"/>
-      <c r="F33" s="70"/>
-      <c r="G33" s="70"/>
-      <c r="H33" s="70"/>
-      <c r="I33" s="70"/>
-      <c r="J33" s="70"/>
-      <c r="K33" s="70"/>
+      <c r="C33" s="72"/>
+      <c r="D33" s="72"/>
+      <c r="E33" s="72"/>
+      <c r="F33" s="72"/>
+      <c r="G33" s="72"/>
+      <c r="H33" s="72"/>
+      <c r="I33" s="72"/>
+      <c r="J33" s="72"/>
+      <c r="K33" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="5">
